--- a/20160512 - 002/6. Logs/logs.xlsx
+++ b/20160512 - 002/6. Logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="46">
   <si>
     <t>Time</t>
   </si>
@@ -119,6 +119,39 @@
   </si>
   <si>
     <t>20160513_103741</t>
+  </si>
+  <si>
+    <t>20160516_142626</t>
+  </si>
+  <si>
+    <t>2 layers: [10-Sigmoid, 2-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 500</t>
+  </si>
+  <si>
+    <t>20160516_143343</t>
+  </si>
+  <si>
+    <t>20160516_144124</t>
+  </si>
+  <si>
+    <t>20160516_144850</t>
+  </si>
+  <si>
+    <t>20160516_145611</t>
+  </si>
+  <si>
+    <t>20160516_151210</t>
+  </si>
+  <si>
+    <t>20160516_151911</t>
+  </si>
+  <si>
+    <t>20160516_152622</t>
+  </si>
+  <si>
+    <t>20160516_153345</t>
+  </si>
+  <si>
+    <t>20160516_154111</t>
   </si>
 </sst>
 </file>
@@ -450,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1241,476 @@
         <v>0.88</v>
       </c>
     </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>0.96882676644549</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17">
+        <v>0.942339106157649</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>0.995665553161067</v>
+      </c>
+      <c r="N17">
+        <v>0.973597359735974</v>
+      </c>
+      <c r="O17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>0.971800002833494</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>0.944003877420317</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>0.99572978911696</v>
+      </c>
+      <c r="N18">
+        <v>0.983498349834984</v>
+      </c>
+      <c r="O18">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>0.971304686804347</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <v>0.942961259105376</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>0.9974371990149</v>
+      </c>
+      <c r="N19">
+        <v>0.983498349834984</v>
+      </c>
+      <c r="O19">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>0.967894214166276</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <v>0.937296190101805</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>0.995015557681566</v>
+      </c>
+      <c r="N20">
+        <v>0.976897689768977</v>
+      </c>
+      <c r="O20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>0.97010902890271</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21">
+        <v>0.938335193789085</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>0.996901666593845</v>
+      </c>
+      <c r="N21">
+        <v>0.97029702970297</v>
+      </c>
+      <c r="O21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>0.972526952446803</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <v>0.937993988751179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <v>0.996365926801146</v>
+      </c>
+      <c r="N22">
+        <v>0.983498349834984</v>
+      </c>
+      <c r="O22">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>0.973655055762957</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>0.939662692112954</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23">
+        <v>0.997160932327575</v>
+      </c>
+      <c r="N23">
+        <v>0.98019801980198</v>
+      </c>
+      <c r="O23">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>0.974188153079157</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24">
+        <v>0.945861364132914</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>0.995597907362587</v>
+      </c>
+      <c r="N24">
+        <v>0.98019801980198</v>
+      </c>
+      <c r="O24">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>0.977585658592511</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>0.939429320039195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>0.995749048326362</v>
+      </c>
+      <c r="N25">
+        <v>0.983498349834984</v>
+      </c>
+      <c r="O25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>0.973839840358264</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
+        <v>0.947676928144943</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26">
+        <v>0.991688075415467</v>
+      </c>
+      <c r="N26">
+        <v>0.973597359735974</v>
+      </c>
+      <c r="O26">
+        <v>0.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
